--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1808.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1808.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155665836529028</v>
+        <v>0.8693733215332031</v>
       </c>
       <c r="B1">
-        <v>2.311653662702724</v>
+        <v>1.649717092514038</v>
       </c>
       <c r="C1">
-        <v>3.777316819816111</v>
+        <v>6.123432636260986</v>
       </c>
       <c r="D1">
-        <v>3.151005735245072</v>
+        <v>1.874566912651062</v>
       </c>
       <c r="E1">
-        <v>1.170551483866918</v>
+        <v>1.132223606109619</v>
       </c>
     </row>
   </sheetData>
